--- a/results/mp/logistic/corona/confidence/126/0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
@@ -49,39 +52,36 @@
     <t>died</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>drop</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
@@ -94,18 +94,9 @@
     <t>stop</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -118,145 +109,148 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>giving</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>important</t>
   </si>
   <si>
     <t>increase</t>
@@ -271,16 +265,13 @@
     <t>you</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>?</t>
   </si>
   <si>
     <t>corona</t>
@@ -649,7 +640,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
@@ -710,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -752,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7431506849315068</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C4">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6538461538461539</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5652173913043478</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>0.8947368421052632</v>
@@ -960,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4736842105263158</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,7 +1101,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4324324324324325</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -1128,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,16 +1172,16 @@
         <v>112</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8328981723237598</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,31 +1219,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8181818181818182</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L13">
+        <v>115</v>
+      </c>
+      <c r="M13">
+        <v>115</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>27</v>
-      </c>
-      <c r="M13">
-        <v>27</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3643410852713178</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C14">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>328</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.796875</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L15">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="M15">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3050847457627119</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>0.7948717948717948</v>
@@ -1410,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2727272727272727</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7830188679245284</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L17">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2214765100671141</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.78125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L18">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1416666666666667</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05952380952380952</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,37 +1601,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00794392523364486</v>
+        <v>0.005157962604771115</v>
       </c>
       <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0.24</v>
+      </c>
+      <c r="F21">
+        <v>0.76</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3086</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L21">
         <v>17</v>
       </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>0.15</v>
-      </c>
-      <c r="F21">
-        <v>0.85</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2123</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21">
-        <v>0.75</v>
-      </c>
-      <c r="L21">
-        <v>18</v>
-      </c>
       <c r="M21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,37 +1651,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007729468599033816</v>
+        <v>0.004078461837249951</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
       <c r="F22">
-        <v>0.92</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3081</v>
+        <v>5128</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.7446808510638298</v>
+        <v>0.7421875</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,37 +1701,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007582139848357203</v>
+        <v>0.003940658321743162</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="F23">
-        <v>0.78</v>
+        <v>0.55</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2356</v>
+        <v>4297</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.7394366197183099</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,213 +1751,141 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007381676074685193</v>
+        <v>0.002816334741500704</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>0.26</v>
+        <v>0.64</v>
       </c>
       <c r="F24">
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2286</v>
+        <v>4957</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L24">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26">
+        <v>0.7</v>
+      </c>
+      <c r="L26">
+        <v>35</v>
+      </c>
+      <c r="M26">
+        <v>35</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K24">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L24">
-        <v>19</v>
-      </c>
-      <c r="M24">
-        <v>19</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
+      <c r="K27">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L27">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>0.004667444574095682</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>47</v>
-      </c>
-      <c r="E25">
-        <v>0.49</v>
-      </c>
-      <c r="F25">
-        <v>0.51</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>5118</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25">
-        <v>0.6875</v>
-      </c>
-      <c r="L25">
-        <v>33</v>
-      </c>
-      <c r="M25">
-        <v>33</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.004179243092639889</v>
-      </c>
-      <c r="C26">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>39</v>
-      </c>
-      <c r="E26">
-        <v>0.54</v>
-      </c>
-      <c r="F26">
-        <v>0.46</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>4289</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L26">
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>13</v>
-      </c>
-      <c r="M26">
-        <v>13</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.003420523138832998</v>
-      </c>
-      <c r="C27">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>43</v>
-      </c>
-      <c r="E27">
-        <v>0.6</v>
-      </c>
-      <c r="F27">
-        <v>0.4</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>4953</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.6785714285714286</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.6511627906976745</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2004,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.6507936507936508</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2030,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.6363636363636364</v>
+        <v>0.65</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2056,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.6294117647058823</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L32">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2082,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>126</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2108,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.6060606060606061</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2134,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2160,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.5851063829787234</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2186,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2212,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.5774058577405857</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2238,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.5692307692307692</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2264,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.5652173913043478</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2290,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.5600000000000001</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2316,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.5457627118644067</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L42">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="M42">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2342,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>134</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.5142857142857142</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2368,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2394,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.4831460674157304</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2420,15 +2339,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.4814814814814815</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L46">
         <v>13</v>
@@ -2446,12 +2365,12 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K47">
         <v>0.4523809523809524</v>
@@ -2477,16 +2396,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.392156862745098</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2498,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.3125</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2524,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.2948717948717949</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2550,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.2876712328767123</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2576,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.2542372881355932</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2602,151 +2521,151 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.02418682235195997</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1170</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.0112739571589628</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N54">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="O54">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2631</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.0109460516028147</v>
+        <v>0.00880503144654088</v>
       </c>
       <c r="L55">
         <v>14</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N55">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="O55">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1265</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.009433962264150943</v>
+        <v>0.007129455909943715</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N56">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="O56">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1575</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.005336617405582923</v>
+        <v>0.006270903010033445</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N57">
-        <v>0.59</v>
+        <v>0.88</v>
       </c>
       <c r="O57">
-        <v>0.41</v>
+        <v>0.12</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2423</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.005221932114882507</v>
+        <v>0.005644402634054563</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N58">
         <v>0.6</v>
@@ -2758,85 +2677,85 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>4953</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K59">
-        <v>0.004872389791183295</v>
+        <v>0.005018065034122842</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M59">
         <v>39</v>
       </c>
       <c r="N59">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="O59">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>4289</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K60">
-        <v>0.004473837774751994</v>
+        <v>0.003247506379030387</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N60">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="O60">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>5118</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="K61">
-        <v>0.004384591293454432</v>
+        <v>0.003110419906687403</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N61">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="O61">
-        <v>0.36</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3179</v>
+        <v>5128</v>
       </c>
     </row>
   </sheetData>
